--- a/Base de datos/Maestro de artículos (1).xlsx
+++ b/Base de datos/Maestro de artículos (1).xlsx
@@ -5,21 +5,27 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalgrupocomeca-my.sharepoint.com/personal/jwilliams_technoends_com/Documents/escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PuraVida\PuraVidaStore\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="14_{011E18EE-BFCE-412B-B95E-467DB50D7C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB3892DC-14AB-4782-8B2C-493FA1D3639F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E18B1D5-340E-44E4-8D5C-734DE4EE7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB540882-BEF9-433C-80EA-16D2F9D3C970}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB540882-BEF9-433C-80EA-16D2F9D3C970}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
-    <sheet name="ArticulosTot" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="5" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="ArticulosTot" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ArticulosTot!$A$1:$E$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ArticulosTot!$A$1:$E$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$1:$E$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="185">
   <si>
     <t>Cantidad</t>
   </si>
@@ -583,6 +589,18 @@
   </si>
   <si>
     <t>SUETER OSOS ESCANDALOSOS NIÑOS 2 A 8 AÑOS</t>
+  </si>
+  <si>
+    <t>Suma de Cantidad</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de Cantidad Tienda</t>
   </si>
 </sst>
 </file>
@@ -604,12 +622,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -624,16 +648,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -644,6 +715,1970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jairo Rivera" refreshedDate="45560.762176157405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="145" xr:uid="{CAC93DAF-848D-4324-B3D9-CB0D9207691B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E146" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="CATEGORÍA" numFmtId="0">
+      <sharedItems count="12">
+        <s v="ELECTRÓNICOS"/>
+        <s v="SEGURIDAD"/>
+        <s v="USO PERSONAL"/>
+        <s v="COSMÉTICOS"/>
+        <s v="INFANTIL"/>
+        <s v="MASCOTAS"/>
+        <s v="RELOJES"/>
+        <s v="HOGAR"/>
+        <s v="VARIOS"/>
+        <s v="JOYERÍA"/>
+        <s v="VESTIMENTA"/>
+        <s v="HOGAR " u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DESCRIPCIÓN ARTÍCULO" numFmtId="0">
+      <sharedItems count="143">
+        <s v="AUDÍFONOS CON CABLE EDXPRO"/>
+        <s v="CÁMARA SEGURIDAD WI-FI EXTERIOR E INTERIOR"/>
+        <s v="CÁMARA SEGURIDAD WI-FI SOLAR"/>
+        <s v="COLAS DE CABELLO NIÑA"/>
+        <s v="MAQUILLAJE SOMBRE 180 COLORES"/>
+        <s v="BATERÍA PORTÁTIL PARA CELULAR"/>
+        <s v="MASAJEADOR FACIAL"/>
+        <s v="BROCHAS EN TARRO 11 UNIDADES"/>
+        <s v="TIENDA DE ACAMPAR"/>
+        <s v="BULTOS DE NIÑA DONA"/>
+        <s v="CREMAS KARSELL CABELLO"/>
+        <s v="DEPILADOR LASER"/>
+        <s v="DIADEMA DE BARBIE NIÑA"/>
+        <s v="MANGUERA PARA PERROS"/>
+        <s v="CÁMARAS DE JUGUETE NIÑAS"/>
+        <s v="MUÑERO SPIDERMAN"/>
+        <s v="JUGUETE INFANTIL SMALL DUCK"/>
+        <s v="AUDIFINOS DIADEMAM FB-K1"/>
+        <s v="CEPILLO DE BAÑO"/>
+        <s v="KIT DEPILADOR LASER Y DEPILADOR MANUAL Y CEPILLA FACIAL"/>
+        <s v="CEPILLO FACIAL"/>
+        <s v="RELOJ DIGITAL HOMBRE SKMEI"/>
+        <s v="MEDIDOR DE PRESIÓN ARTERIAL"/>
+        <s v="LAMPARA LED PARA PARED"/>
+        <s v="LAMPARA PARA MOSQUITOS"/>
+        <s v="RELOJ MUJER CON PULSERA HELLO KITTY"/>
+        <s v="RELOJ MUJER BRAZALETE ACERO HELLO KITTY"/>
+        <s v="RELOJ MUJER STICH CUERO"/>
+        <s v="RELOJ MUJER STICH ACERO"/>
+        <s v="RELOJ HOMBRE SPIDERMAN CUERO"/>
+        <s v="CUADROS LED DE BATMAN"/>
+        <s v="SOPORTE DE BICICLETA"/>
+        <s v="LONA PARA PLAYA"/>
+        <s v="CORRECTO DE JUANETE"/>
+        <s v="GUANTE DE COMPRESIÓN"/>
+        <s v="DISFRAZ DE DINOSAURIO "/>
+        <s v="RELOJ INFANTIL CON MUSICA"/>
+        <s v="BROCHAS EN ESTUCHE  24 UNIDADES"/>
+        <s v="BROCHAS UNICORNIO  AZUL 10 UNIDADES"/>
+        <s v="BROCHAS PROFECIONALES 8 UNIDADES"/>
+        <s v="BROCHAS PROFECIONALES ESCARCHA"/>
+        <s v="BROCHAS PROFECIONALES 10 UNIDADES"/>
+        <s v="BROCHAS UNICORNIO 10 UNIDADES"/>
+        <s v="BROCHAS   24 UNIDADES"/>
+        <s v="BROCHAS EN ESTUCHE PROF 24 UNIDADES"/>
+        <s v="BROCHAS ESTUCHE 32 UNIDADES"/>
+        <s v="PULSERA MARGARITA-PLATA 925"/>
+        <s v="COLLAR TULIPAN ENCHAPADO ORO 14K"/>
+        <s v="COLLAR MARGARITA- ABEJA 0RO 14K"/>
+        <s v="ARETES ABEJA Y FLOR PLATA 925"/>
+        <s v="COLLAR ABEJA"/>
+        <s v="ARETES ABEJA"/>
+        <s v="PULSERA PLATA CORAZON ELASTICA"/>
+        <s v="COLLAR LUCIRNAGA LUMINOSO"/>
+        <s v="PULSERA ROSA PLATA 925"/>
+        <s v="PULSERA HELLO KITTY - ENCHAOAPDO ORO 14K"/>
+        <s v="PULSERA HELLO KITTY ENCHAPADO PLATA 925"/>
+        <s v="COLLAR FRESA-PLATA 925"/>
+        <s v="ARETES TULIPAN ENCHAPADO ORO 14K"/>
+        <s v="ARETES TULIPAN ROSA ENCHAPADO ORO 14K"/>
+        <s v="ARETES MASCOTA"/>
+        <s v="ANILLO AJUSTABLE PROMESA"/>
+        <s v="ANILLO ESTRELLA AZUL"/>
+        <s v="COLLAR CORAZON AZUL"/>
+        <s v="COLLAR MASCOTA ENCHAPADO ORO 14K"/>
+        <s v="COLLAR MASCOTA"/>
+        <s v="COLLAR CEREZO"/>
+        <s v="COLLAR FLOR MARGARRITA"/>
+        <s v="ARGOLLAS CORAZON"/>
+        <s v="ARETES CONEJO ENCHAPADO ORO 14K"/>
+        <s v="ARETES CONEJO"/>
+        <s v="ARETES LEDY DI"/>
+        <s v="COLLAR LEDY DI"/>
+        <s v="ANILLO LEDY DI (AJUSTABLE)"/>
+        <s v="CADENA CABALLERO EN ACERO"/>
+        <s v="PULSERA CABALLERO EN ACERO"/>
+        <s v="SUETER MICKEY MOUSE PELUDITO"/>
+        <s v="SUETER MINI MOUSE CAPUCHA PELIDITA"/>
+        <s v="SUETER MICKEY MOUSE HISTORIA"/>
+        <s v="CHAQUETA MICKEY MOUSE NEGRA CORTA VIENTOS"/>
+        <s v="SUETER MICKEY MOUSE SIN CAPUCHA"/>
+        <s v="SUETER MICKEY MOUSE PELUDITO VARIOS"/>
+        <s v="CHAQUETA MICKEY MOUSE COCA COLA CORTA VIENTOS"/>
+        <s v="CHAQUETA MICKEY MOUSE NEGRA Y GRIS CORTA VIENTOS"/>
+        <s v="SUETER STITCH CUELLO REDONDO"/>
+        <s v="SUETER STITCH PELUDITO"/>
+        <s v="CHAQUETA OSOS ESCANDALOSOS CORTA VIENTOS "/>
+        <s v="CHAQUETA STITCH- CELESTE CORTA VIENTOS "/>
+        <s v="SUETER MINI MOUSE CAPUCHA PELIDITA LAZO ROJO"/>
+        <s v="SUETER MINI MOUSE NIÑA 4 A 12 AÑOS"/>
+        <s v="CHAQUETA MINI MAUSE CELESTE CORTA VIENTOS "/>
+        <s v="SUETER MINI MOUSE CAPUCHA PELIDITA MORADA"/>
+        <s v="SUETER HELLO KITTY PELUDITO"/>
+        <s v="SUTER HELLO KITTY PELUDITO NEGRO"/>
+        <s v="CHAQUETA LOONEY TUNES CORTA VIENTOS "/>
+        <s v="SUETER PANTERA ROSA PELUDITO"/>
+        <s v="CHAQUETA BOB ESPONJA CORTA VIENTOS "/>
+        <s v="CHAQUETA MICKEY MOUSE  VARIOS CORTA VIENTOS"/>
+        <s v="SUETER MICKEY MOUSE HISTORIA NINOS 4 A 12 AÑOS"/>
+        <s v="CHAQUETA MICKEY  Y MINI LONDRES   CORTA VIENTOS"/>
+        <s v="SUETER MICKEY MOUSE SALUDOS"/>
+        <s v="SUETER WINNIE POOH CAPUCHA PELIDITA"/>
+        <s v="SUETER CAPUCHA SNOOPY ALGODÓN"/>
+        <s v="CHAQUETA CAPUCHA SNOOPY CORTA VIENTOS"/>
+        <s v="CHAQUETA CAPUCHA SNOOPY AMIGOS CORTA VIENTOS"/>
+        <s v="CHAQUETA STITCH- ROSA CORTA VIENTOS "/>
+        <s v="CHAQUETA STITCH- TORNASOL CORTA VIENTOS "/>
+        <s v="SUETER STITCH CAPUCHA ALGODÓN"/>
+        <s v="CHAQUETA HELLO KITTY CORTA VIENTOS"/>
+        <s v="SUETER MAFALDA PELUDITO"/>
+        <s v="SUETER OSOS ESCANDALOSOS ALGODÓN"/>
+        <s v="SUETER OSOS ESCANDALOSOS NIÑOS 2 A 8 AÑOS"/>
+        <s v="CHAQUETA SPIDERMAN CORTA VIENTOS NIÑOS 2 A 8 AÑOS"/>
+        <s v="CHAQUETA SONIC CORTA VIENTOS NIÑOS 2 A 8 AÑOS"/>
+        <s v="CHAQUETA GARFRIEL CORTA VIENTOS"/>
+        <s v="SUETER ARISTOCATS NIÑA 6 A 12 AÑOS"/>
+        <s v="SUETER RUGRATS AMIGOS "/>
+        <s v="SUETER RUGRATS ANGELICA CAPUCHA PELUDITA"/>
+        <s v="CHAQUETA RUGRATS AMIGOS CORTA VIENTOS"/>
+        <s v="SUETER RUGRATS CARLITOS"/>
+        <s v="SUETER RUGRATS ANGELICA "/>
+        <s v="SUETER RUGRATS AMIGOS NINOS 6 A 12 AÑOS"/>
+        <s v="SUETER GOOFY  NINOS 6 A 12 AÑOS"/>
+        <s v="CHAQUETA SPIDERMAN CORTA VIENTOS NIÑOS 2 A 12 AÑOS"/>
+        <s v="SUTER TOM Y JERRY "/>
+        <s v="SUETER BUGS BUNNY "/>
+        <s v="SUETER MAFALDA CAPUCHA CON DETALLE"/>
+        <s v="SUETER JIGGLYPUFF CAPUCHA CON DETALLE"/>
+        <s v="SUETER PIKACHU CAPUCHA CON DETALLE"/>
+        <s v="SUETER ANGEL CAPUCHA CON DETALLE"/>
+        <s v="SUETER KUROMORI CAPUCHA CON DETALLE"/>
+        <s v="SUETER HELLO KITTY CAPUCHA CON DETALLE"/>
+        <s v="SUETER MELODI CAPUCHA CON DETALLE"/>
+        <s v="SUETER NARUTO"/>
+        <s v="SUETER HELLO PATO DONALD OVERSIZE"/>
+        <s v="SUETER HELLO KITTY OVERSIZE"/>
+        <s v="SUETER HELLO CHARLI OVERSIZE"/>
+        <s v="SUETER HELLO STITCH OVERSIZE"/>
+        <s v="SUETER MOSTER IN OVERSIZE"/>
+        <s v="SUETER KUROMORI OVERSIZE"/>
+        <s v="SUETER MINNI OVERSIZE"/>
+        <s v="SUETER HELLO KITTY PERSONAJES OVERSIZE"/>
+        <s v="SUETER CARLITOS OVERSIZE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cantidad" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="52"/>
+    </cacheField>
+    <cacheField name="Precio" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cantidad Tienda" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="49"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="145">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9"/>
+    <m/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="22"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="11"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="9"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="52"/>
+    <m/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="10"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="25"/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="30"/>
+    <m/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="14"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <n v="48"/>
+    <m/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <n v="19"/>
+    <m/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="10"/>
+    <m/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="40"/>
+    <m/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="16"/>
+    <n v="14"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <n v="9"/>
+    <m/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="16"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <n v="4"/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="21"/>
+    <n v="10"/>
+    <m/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <n v="9"/>
+    <m/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="23"/>
+    <n v="45"/>
+    <m/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="24"/>
+    <n v="29"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="25"/>
+    <n v="5"/>
+    <m/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="26"/>
+    <n v="17"/>
+    <m/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="27"/>
+    <n v="18"/>
+    <m/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="28"/>
+    <n v="6"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="29"/>
+    <n v="12"/>
+    <m/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="30"/>
+    <n v="3"/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="31"/>
+    <n v="15"/>
+    <m/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="32"/>
+    <n v="23"/>
+    <m/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="33"/>
+    <n v="28"/>
+    <m/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="29"/>
+    <m/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="35"/>
+    <n v="16"/>
+    <m/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="36"/>
+    <n v="32"/>
+    <m/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="37"/>
+    <n v="8"/>
+    <m/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="38"/>
+    <n v="12"/>
+    <m/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="39"/>
+    <n v="10"/>
+    <m/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="40"/>
+    <n v="49"/>
+    <m/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="41"/>
+    <n v="7"/>
+    <m/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="42"/>
+    <n v="13"/>
+    <m/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="43"/>
+    <n v="42"/>
+    <m/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="44"/>
+    <n v="2"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="45"/>
+    <n v="18"/>
+    <m/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="46"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="47"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="48"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="49"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="51"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="54"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="55"/>
+    <n v="25"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="56"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="57"/>
+    <n v="11"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="58"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="60"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="62"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="64"/>
+    <n v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="65"/>
+    <n v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="66"/>
+    <n v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="67"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="68"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="69"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="70"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="71"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="73"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="74"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="74"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="75"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="74"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="76"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="77"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="78"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="79"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="80"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="81"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="82"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="83"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="84"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="85"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="86"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="87"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="88"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="89"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="90"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="91"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="92"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="93"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="94"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="95"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="96"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="97"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="98"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="101"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="102"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="103"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="104"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="105"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="106"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="107"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="108"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="109"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="110"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="111"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="112"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="113"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="114"/>
+    <m/>
+    <m/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="115"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="116"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="117"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="118"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="119"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="120"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="121"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="122"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="123"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="124"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="125"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="126"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="127"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="128"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="129"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="130"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="131"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="132"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="133"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="134"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="136"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="137"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="138"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="139"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="140"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="141"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="142"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BE5527B-5449-4340-B7E9-19368B4DF749}" name="TablaDinámica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A18:D162" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="10"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="143">
+        <item x="61"/>
+        <item x="62"/>
+        <item x="73"/>
+        <item x="51"/>
+        <item x="49"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="60"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="68"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="43"/>
+        <item x="37"/>
+        <item x="44"/>
+        <item x="7"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="38"/>
+        <item x="42"/>
+        <item x="9"/>
+        <item x="74"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="96"/>
+        <item x="104"/>
+        <item x="103"/>
+        <item x="114"/>
+        <item x="108"/>
+        <item x="94"/>
+        <item x="99"/>
+        <item x="97"/>
+        <item x="82"/>
+        <item x="79"/>
+        <item x="83"/>
+        <item x="90"/>
+        <item x="86"/>
+        <item x="118"/>
+        <item x="113"/>
+        <item x="123"/>
+        <item x="112"/>
+        <item x="87"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="3"/>
+        <item x="50"/>
+        <item x="66"/>
+        <item x="63"/>
+        <item x="67"/>
+        <item x="57"/>
+        <item x="72"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="47"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="75"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="46"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="21"/>
+        <item x="29"/>
+        <item x="36"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="129"/>
+        <item x="115"/>
+        <item x="125"/>
+        <item x="102"/>
+        <item x="142"/>
+        <item x="122"/>
+        <item x="136"/>
+        <item x="131"/>
+        <item x="135"/>
+        <item x="92"/>
+        <item x="141"/>
+        <item x="134"/>
+        <item x="137"/>
+        <item x="127"/>
+        <item x="130"/>
+        <item x="139"/>
+        <item x="126"/>
+        <item x="109"/>
+        <item x="132"/>
+        <item x="78"/>
+        <item x="98"/>
+        <item x="76"/>
+        <item x="81"/>
+        <item x="100"/>
+        <item x="80"/>
+        <item x="77"/>
+        <item x="88"/>
+        <item x="91"/>
+        <item x="89"/>
+        <item x="140"/>
+        <item x="138"/>
+        <item x="133"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="95"/>
+        <item x="128"/>
+        <item x="116"/>
+        <item x="121"/>
+        <item x="120"/>
+        <item x="117"/>
+        <item x="119"/>
+        <item x="107"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="101"/>
+        <item x="93"/>
+        <item x="124"/>
+        <item x="8"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="144">
+    <i>
+      <x/>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="87"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="91"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i r="1">
+      <x v="99"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="101"/>
+    </i>
+    <i r="1">
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="113"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="116"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="119"/>
+    </i>
+    <i r="1">
+      <x v="120"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="122"/>
+    </i>
+    <i r="1">
+      <x v="123"/>
+    </i>
+    <i r="1">
+      <x v="124"/>
+    </i>
+    <i r="1">
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="129"/>
+    </i>
+    <i r="1">
+      <x v="130"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="132"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i r="1">
+      <x v="134"/>
+    </i>
+    <i r="1">
+      <x v="135"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
+    <i r="1">
+      <x v="137"/>
+    </i>
+    <i r="1">
+      <x v="138"/>
+    </i>
+    <i r="1">
+      <x v="139"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
+    </i>
+    <i r="1">
+      <x v="141"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma de Cantidad" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Cantidad Tienda" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCF10F9C-CE67-48E9-AC4C-E49F8713F783}" name="TablaDinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,70 +2998,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7850BCBE-9D03-4203-8C8B-52A7A171B2E7}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>"('"&amp;A2&amp;"',1),"</f>
+        <v>('VESTIMENTA',1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B11" si="0">"('"&amp;A3&amp;"',1),"</f>
+        <v>('JOYERÍA',1),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>('COSMÉTICOS',1),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>('ELECTRÓNICOS',1),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>('RELOJES',1),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>('USO PERSONAL',1),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>('JUGUETES ',1),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>('INFANTIL',1),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>('MASCOTAS',1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"('"&amp;A11&amp;"',1)"</f>
+        <v>('VARIOS',1)</v>
       </c>
     </row>
   </sheetData>
@@ -1035,22 +3111,3638 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC491252-7822-4D00-98A1-7F2FA4B37D8A}">
+  <dimension ref="A3:D162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"('"&amp;A4&amp;"',1),"</f>
+        <v>('COSMÉTICOS',1),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B14" si="0">"('"&amp;A5&amp;"',1),"</f>
+        <v>('ELECTRÓNICOS',1),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>('HOGAR',1),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>('INFANTIL',1),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>('JOYERÍA',1),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>('MASCOTAS',1),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>('RELOJES',1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>('SEGURIDAD',1),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>('USO PERSONAL',1),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>('VARIOS',1),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>('VESTIMENTA',1),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="2">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="2">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="2">
+        <v>25</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="2">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="2">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="2">
+        <v>32</v>
+      </c>
+      <c r="D76" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="2">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="2">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="2">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="2">
+        <v>16</v>
+      </c>
+      <c r="D83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="2">
+        <v>22</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="2">
+        <v>28</v>
+      </c>
+      <c r="D86" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="2">
+        <v>30</v>
+      </c>
+      <c r="D87" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="2">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="2">
+        <v>29</v>
+      </c>
+      <c r="D89" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="2">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="2">
+        <v>23</v>
+      </c>
+      <c r="D93" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="2">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>177</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>178</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>179</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>150</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>123</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" s="2">
+        <v>932</v>
+      </c>
+      <c r="D162" s="2">
+        <v>672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6F789B-670D-4563-966C-2B764BC78517}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>49</v>
+      </c>
+      <c r="E42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="5">
+        <v>5</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="5">
+        <v>25</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="5">
+        <v>11</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="5">
+        <v>5</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="5">
+        <v>5</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="5">
+        <v>5</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="5">
+        <v>4</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="5">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="5">
+        <v>6</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="5">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="5">
+        <v>5</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="5">
+        <v>5</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E146" xr:uid="{DD6F789B-670D-4563-966C-2B764BC78517}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HOGAR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2744CB-4B7B-4233-8D44-A2A1966EF820}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +6762,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +6776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +6787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +6798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +6809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +6820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +6831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +6842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +6856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +6870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +6884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +6898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +6909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +6923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +6951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +6965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,7 +6979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +6993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1315,7 +7007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +7018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +7032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1354,7 +7046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +7060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +7074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +7088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +7102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +7116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +7130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,7 +7144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1466,7 +7158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1480,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1494,7 +7186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +7200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +7214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1536,7 +7228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +7242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1564,7 +7256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +7270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +7284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +7298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1620,7 +7312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1634,7 +7326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +7340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +7354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -1690,7 +7382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1698,7 +7390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -1709,7 +7401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,7 +7412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +7423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -1739,7 +7431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -1747,7 +7439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -1755,7 +7447,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +7455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -1774,7 +7466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +7477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +7499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
@@ -1818,7 +7510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>18</v>
       </c>
@@ -1829,7 +7521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +7532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -1851,7 +7543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -1862,7 +7554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +7576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
@@ -1895,7 +7587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -1906,7 +7598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,7 +7609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +7620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
@@ -1939,7 +7631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -1950,7 +7642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -1958,7 +7650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +7658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +7666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
@@ -1982,7 +7674,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -1990,7 +7682,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -1998,7 +7690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
@@ -2006,7 +7698,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +7715,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -2037,7 +7729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>19</v>
       </c>
@@ -2051,7 +7743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>19</v>
       </c>
@@ -2059,7 +7751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -2076,7 +7768,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,7 +7782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>19</v>
       </c>
@@ -2107,7 +7799,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,7 +7807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +7824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>19</v>
       </c>
@@ -2140,7 +7832,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -2160,7 +7852,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>19</v>
       </c>
@@ -2174,7 +7866,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>19</v>
       </c>
@@ -2182,7 +7874,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -2190,7 +7882,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +7890,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +7907,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>19</v>
       </c>
@@ -2235,7 +7927,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>19</v>
       </c>
@@ -2252,7 +7944,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2269,7 +7961,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +7975,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>19</v>
       </c>
@@ -2300,7 +7992,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>19</v>
       </c>
@@ -2314,7 +8006,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +8014,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
@@ -2330,7 +8022,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +8030,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +8038,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>19</v>
       </c>
@@ -2360,7 +8052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>19</v>
       </c>
@@ -2374,7 +8066,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>19</v>
       </c>
@@ -2388,7 +8080,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>19</v>
       </c>
@@ -2405,7 +8097,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +8114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>19</v>
       </c>
@@ -2430,7 +8122,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -2438,7 +8130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +8138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -2454,7 +8146,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -2462,7 +8154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -2473,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -2484,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -2501,7 +8193,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +8201,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>19</v>
       </c>
@@ -2517,7 +8209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>19</v>
       </c>
@@ -2525,7 +8217,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -2542,7 +8234,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>19</v>
       </c>
@@ -2559,7 +8251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>19</v>
       </c>
@@ -2576,7 +8268,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -2584,7 +8276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>19</v>
       </c>
@@ -2595,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>19</v>
       </c>
@@ -2603,7 +8295,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +8309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +8323,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -2639,7 +8331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>19</v>
       </c>
@@ -2653,7 +8345,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>19</v>
       </c>
@@ -2670,7 +8362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +8379,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>19</v>
       </c>
@@ -2701,7 +8393,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>19</v>
       </c>
@@ -2715,7 +8407,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>19</v>
       </c>
@@ -2732,7 +8424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>19</v>
       </c>
@@ -2749,7 +8441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>19</v>
       </c>
@@ -2760,7 +8452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>19</v>
       </c>
@@ -2771,7 +8463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>19</v>
       </c>
@@ -2782,7 +8474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>19</v>
       </c>
@@ -2793,7 +8485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>19</v>
       </c>
@@ -2815,7 +8507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>19</v>
       </c>
@@ -2826,7 +8518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>19</v>
       </c>
@@ -2837,7 +8529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>19</v>
       </c>
@@ -2848,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C157">
         <f>SUM(C2:C156)</f>
         <v>932</v>
